--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrip\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mini\project-2\project2\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC1E0E-161E-431F-893E-AECD059A0370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7747E6-F710-4A31-86E0-58C8B3F525FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C726C10-CE01-4CAE-A83A-420A1C46BCB4}"/>
+    <workbookView xWindow="1920" yWindow="3084" windowWidth="17280" windowHeight="8964" xr2:uid="{4C726C10-CE01-4CAE-A83A-420A1C46BCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
   <si>
     <t>List of Banks/Lenders</t>
   </si>
@@ -477,6 +477,9 @@
     <t>Minimum Loan Amount - INR 50,000
 Maximum Loan Amount - 12 times of gross monthly salary for employees having a monthly remuneration of INR 15,000 - INR 20,000
 24 times the gross monthly salary for individuals earning above INR 20,000. The maximum loan amount, however, won't exceed INR 7.50 lakh</t>
+  </si>
+  <si>
+    <t>Depends on the internal policy of the bank.</t>
   </si>
 </sst>
 </file>
@@ -595,64 +598,64 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,145 +973,145 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" style="30" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" style="16" customWidth="1"/>
     <col min="5" max="5" width="44.33203125" customWidth="1"/>
     <col min="6" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="20">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="20">
         <v>13.65</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="115.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="21">
         <v>8.9</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="21">
         <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="14">
         <v>10.49</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="14">
         <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1120,16 +1123,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="15">
         <v>14</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="15">
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1143,77 +1146,77 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="20">
         <v>10</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="20">
         <v>15.6</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="15">
         <v>10.35</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="15">
         <v>12.35</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1227,16 +1230,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="14">
         <v>9.5500000000000007</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="14">
         <v>10.55</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1250,68 +1253,68 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="21">
         <v>11.25</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="21">
         <v>13.3</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="16"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="8" t="s">
         <v>44</v>
       </c>
@@ -1323,14 +1326,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="5" t="s">
         <v>48</v>
       </c>
@@ -1342,14 +1345,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="8" t="s">
         <v>52</v>
       </c>
@@ -1361,53 +1364,53 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="14" t="s">
+      <c r="F25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="8" t="s">
         <v>57</v>
       </c>
@@ -1419,14 +1422,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="5" t="s">
         <v>62</v>
       </c>
@@ -1438,14 +1441,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="8" t="s">
         <v>66</v>
       </c>
@@ -1457,14 +1460,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="5" t="s">
         <v>70</v>
       </c>
@@ -1476,14 +1479,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="8" t="s">
         <v>75</v>
       </c>
@@ -1495,14 +1498,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="5" t="s">
         <v>62</v>
       </c>
@@ -1514,14 +1517,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="8" t="s">
         <v>83</v>
       </c>
@@ -1533,14 +1536,14 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="10">
         <v>0.10299999999999999</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="5" t="s">
         <v>87</v>
       </c>
@@ -1552,14 +1555,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="11">
         <v>0.1235</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="8" t="s">
         <v>57</v>
       </c>
@@ -1571,14 +1574,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="5" t="s">
         <v>62</v>
       </c>
@@ -1590,14 +1593,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="8" t="s">
         <v>96</v>
       </c>
@@ -1609,14 +1612,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="10">
         <v>0.11550000000000001</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="5" t="s">
         <v>96</v>
       </c>
@@ -1628,53 +1631,53 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="12" t="s">
+      <c r="F40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="5" t="s">
         <v>108</v>
       </c>
@@ -1686,14 +1689,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B44" s="11">
         <v>0.111</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="8" t="s">
         <v>111</v>
       </c>
@@ -1705,14 +1708,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="5" t="s">
         <v>96</v>
       </c>
@@ -1724,14 +1727,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="8" t="s">
         <v>117</v>
       </c>
@@ -1743,14 +1746,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="5" t="s">
         <v>96</v>
       </c>
@@ -1762,14 +1765,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="8" t="s">
         <v>70</v>
       </c>
@@ -1781,53 +1784,53 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="14" t="s">
+      <c r="F49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="28"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="28"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="8" t="s">
         <v>129</v>
       </c>
@@ -1839,14 +1842,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="12" t="s">
         <v>131</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="5" t="s">
         <v>132</v>
       </c>
@@ -1858,53 +1861,53 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="26"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="12" t="s">
+      <c r="F54" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="18"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
     </row>
     <row r="57" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="5" t="s">
         <v>75</v>
       </c>
@@ -1916,14 +1919,14 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="12" t="s">
         <v>139</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
         <v>141</v>
       </c>
@@ -1935,14 +1938,14 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="12" t="s">
         <v>144</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="5" t="s">
         <v>141</v>
       </c>
@@ -1955,13 +1958,34 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C40:C42"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="G49:G51"/>
@@ -1972,34 +1996,13 @@
     <mergeCell ref="F54:F56"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C54:C56"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mini\project-2\project2\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7747E6-F710-4A31-86E0-58C8B3F525FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33294A-4544-45B6-A550-3F0EACEAEE40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3084" windowWidth="17280" windowHeight="8964" xr2:uid="{4C726C10-CE01-4CAE-A83A-420A1C46BCB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C726C10-CE01-4CAE-A83A-420A1C46BCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="153">
   <si>
     <t>List of Banks/Lenders</t>
   </si>
@@ -480,6 +480,12 @@
   </si>
   <si>
     <t>Depends on the internal policy of the bank.</t>
+  </si>
+  <si>
+    <t>Minimum Loan Amount</t>
+  </si>
+  <si>
+    <t>Maximum Loan Amount</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -626,14 +632,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,17 +653,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,22 +985,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ABBF9D-AA8B-4741-B79C-5663A2861512}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" customWidth="1"/>
+    <col min="3" max="5" width="17.44140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -998,110 +1014,132 @@
       <c r="D1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="31">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="31">
         <v>13.65</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="31">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="I2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" ht="115.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="32">
         <v>8.9</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="32">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="H6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="I6" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="6" t="s">
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1114,15 +1152,21 @@
       <c r="D9" s="14">
         <v>21</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="20">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1500000</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1135,78 +1179,94 @@
       <c r="D10" s="15">
         <v>16</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2500000</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="31">
         <v>10</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="31">
         <v>15.6</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="H11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="I11" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="2" t="s">
+    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1219,17 +1279,23 @@
       <c r="D16" s="15">
         <v>12.35</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="21">
+        <v>500000</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -1242,71 +1308,89 @@
       <c r="D17" s="14">
         <v>10.55</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="21">
+        <v>500000</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="32">
         <v>11.25</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="32">
         <v>13.3</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>300000</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="I18" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="6" t="s">
+    <row r="19" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="6" t="s">
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
@@ -1315,17 +1399,21 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>46</v>
       </c>
@@ -1334,17 +1422,23 @@
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>3000000</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
@@ -1353,56 +1447,68 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <v>350000</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="H25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="I25" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="21"/>
+    <row r="26" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="21"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
@@ -1411,17 +1517,23 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
+        <v>500000</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
@@ -1430,17 +1542,23 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>64</v>
       </c>
@@ -1449,17 +1567,19 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>68</v>
       </c>
@@ -1468,17 +1588,23 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21">
+        <v>3000000</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>73</v>
       </c>
@@ -1487,17 +1613,23 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="20">
+        <v>4000000</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>78</v>
       </c>
@@ -1506,17 +1638,21 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="21"/>
+      <c r="F33" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>81</v>
       </c>
@@ -1525,17 +1661,21 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="20">
+        <v>1500000</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>86</v>
       </c>
@@ -1544,17 +1684,19 @@
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>89</v>
       </c>
@@ -1563,17 +1705,23 @@
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="36">
+        <v>500000</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>90</v>
       </c>
@@ -1582,17 +1730,23 @@
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>94</v>
       </c>
@@ -1601,17 +1755,21 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>99</v>
       </c>
@@ -1620,56 +1778,66 @@
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="18"/>
+      <c r="F39" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="H40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="I40" s="24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="20"/>
+    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="20"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="27"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>106</v>
       </c>
@@ -1678,17 +1846,19 @@
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>110</v>
       </c>
@@ -1697,17 +1867,19 @@
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="I44" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>113</v>
       </c>
@@ -1716,17 +1888,19 @@
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>116</v>
       </c>
@@ -1735,17 +1909,19 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="I46" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>119</v>
       </c>
@@ -1754,17 +1930,19 @@
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>121</v>
       </c>
@@ -1773,56 +1951,64 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+    <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="H49" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="I49" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="21"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="21"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="27"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>127</v>
       </c>
@@ -1831,17 +2017,19 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="I52" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>131</v>
       </c>
@@ -1850,56 +2038,64 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+    <row r="54" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="H54" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="I54" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="20"/>
+    <row r="55" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="20"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="27"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-    </row>
-    <row r="57" spans="1:7" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="1:9" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>135</v>
       </c>
@@ -1908,17 +2104,19 @@
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>139</v>
       </c>
@@ -1927,17 +2125,19 @@
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="H58" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="I58" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>144</v>
       </c>
@@ -1946,63 +2146,71 @@
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="51">
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="G2:G5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
